--- a/data/extracted_data/const1/const1-trial1-tdoa2-results-scipynm-describe.xlsx
+++ b/data/extracted_data/const1/const1-trial1-tdoa2-results-scipynm-describe.xlsx
@@ -528,64 +528,64 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>1000</v>
+        <v>28078</v>
       </c>
       <c r="C2">
-        <v>1000</v>
+        <v>28078</v>
       </c>
       <c r="D2">
-        <v>1000</v>
+        <v>28078</v>
       </c>
       <c r="E2">
-        <v>1000</v>
+        <v>28078</v>
       </c>
       <c r="F2">
-        <v>1000</v>
+        <v>28078</v>
       </c>
       <c r="G2">
-        <v>1000</v>
+        <v>28078</v>
       </c>
       <c r="H2">
-        <v>1000</v>
+        <v>28078</v>
       </c>
       <c r="I2">
-        <v>1000</v>
+        <v>28078</v>
       </c>
       <c r="J2">
-        <v>1000</v>
+        <v>28078</v>
       </c>
       <c r="K2">
-        <v>1000</v>
+        <v>28078</v>
       </c>
       <c r="L2">
-        <v>1000</v>
+        <v>28078</v>
       </c>
       <c r="M2">
-        <v>1000</v>
+        <v>28078</v>
       </c>
       <c r="N2">
-        <v>1000</v>
+        <v>28078</v>
       </c>
       <c r="O2">
-        <v>1000</v>
+        <v>28078</v>
       </c>
       <c r="P2">
-        <v>1000</v>
+        <v>28078</v>
       </c>
       <c r="Q2">
-        <v>1000</v>
+        <v>28078</v>
       </c>
       <c r="R2">
-        <v>1000</v>
+        <v>28078</v>
       </c>
       <c r="S2">
-        <v>1000</v>
+        <v>28078</v>
       </c>
       <c r="T2">
-        <v>1000</v>
+        <v>28078</v>
       </c>
       <c r="U2">
-        <v>1000</v>
+        <v>28078</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -593,64 +593,64 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>19.38354588580777</v>
+        <v>10.52894440309766</v>
       </c>
       <c r="C3">
-        <v>1.250553746141097</v>
+        <v>0.1397447643437998</v>
       </c>
       <c r="D3">
-        <v>0.01527774418778445</v>
+        <v>-0.001050207284272222</v>
       </c>
       <c r="E3">
-        <v>0.3443964467472025</v>
+        <v>1.433860764556182</v>
       </c>
       <c r="F3">
-        <v>0.01945100069046021</v>
+        <v>0.0295293336580669</v>
       </c>
       <c r="G3">
-        <v>0.5759906505554916</v>
+        <v>1.15942913758292</v>
       </c>
       <c r="H3">
-        <v>-0.9446049683493318</v>
+        <v>0.3122981840871724</v>
       </c>
       <c r="I3">
-        <v>-0.1605702349227072</v>
+        <v>-0.1537466280677058</v>
       </c>
       <c r="J3">
-        <v>3.507206123686244</v>
+        <v>0.1637278636564015</v>
       </c>
       <c r="K3">
-        <v>0.009158972978591919</v>
+        <v>0.008648753828519736</v>
       </c>
       <c r="L3">
-        <v>3.491</v>
+        <v>3.502101289265617</v>
       </c>
       <c r="M3">
-        <v>3.483</v>
+        <v>3.496367262625543</v>
       </c>
       <c r="N3">
-        <v>3.493</v>
+        <v>3.50203005912102</v>
       </c>
       <c r="O3">
-        <v>3.485</v>
+        <v>3.496296032480946</v>
       </c>
       <c r="P3">
-        <v>3.495</v>
+        <v>3.501958828976423</v>
       </c>
       <c r="Q3">
-        <v>3.479</v>
+        <v>3.496224802336349</v>
       </c>
       <c r="R3">
-        <v>1.275843003511429</v>
+        <v>0.1302622693760986</v>
       </c>
       <c r="S3">
-        <v>0.01676499998569487</v>
+        <v>0.002505270874734624</v>
       </c>
       <c r="T3">
-        <v>0.3485456671441594</v>
+        <v>1.433620234289719</v>
       </c>
       <c r="U3">
-        <v>1.056593076999986</v>
+        <v>29.46120630979176</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -658,64 +658,64 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>11.73915787333475</v>
+        <v>8.87040635769093</v>
       </c>
       <c r="C4">
-        <v>0.07169981344699498</v>
+        <v>0.9216115049624481</v>
       </c>
       <c r="D4">
-        <v>0.02156662219749119</v>
+        <v>0.8148361946398645</v>
       </c>
       <c r="E4">
-        <v>0.329027493317417</v>
+        <v>0.2805731066569871</v>
       </c>
       <c r="F4">
-        <v>0.02968002439243703</v>
+        <v>0.0331413202564531</v>
       </c>
       <c r="G4">
-        <v>1.112729519642187</v>
+        <v>1.781599365068247</v>
       </c>
       <c r="H4">
-        <v>0.3643118219923829</v>
+        <v>1.454695100448644</v>
       </c>
       <c r="I4">
-        <v>0.4213164546336345</v>
+        <v>1.144925557358659</v>
       </c>
       <c r="J4">
-        <v>0.5167092297188703</v>
+        <v>0.7447226735474752</v>
       </c>
       <c r="K4">
-        <v>0.008055423965235975</v>
+        <v>0.005431911904670965</v>
       </c>
       <c r="L4">
-        <v>2.295907269510289</v>
+        <v>2.29375126562095</v>
       </c>
       <c r="M4">
-        <v>2.290186882321169</v>
+        <v>2.293423249325788</v>
       </c>
       <c r="N4">
-        <v>2.297221850024117</v>
+        <v>2.293766857269127</v>
       </c>
       <c r="O4">
-        <v>2.292385227231678</v>
+        <v>2.29340760556281</v>
       </c>
       <c r="P4">
-        <v>2.299404762598848</v>
+        <v>2.293751391708336</v>
       </c>
       <c r="Q4">
-        <v>2.293647710486469</v>
+        <v>2.293360899302089</v>
       </c>
       <c r="R4">
-        <v>0.03380530496366115</v>
+        <v>0.9338287609050804</v>
       </c>
       <c r="S4">
-        <v>0.01855145223541207</v>
+        <v>0.8328799898255055</v>
       </c>
       <c r="T4">
-        <v>0.3278508565587065</v>
+        <v>0.2790593909151618</v>
       </c>
       <c r="U4">
-        <v>0.6099504667843942</v>
+        <v>16.98421271962245</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -723,13 +723,13 @@
         <v>23</v>
       </c>
       <c r="B5">
-        <v>0.6667773528591937</v>
+        <v>0.0006234184891853893</v>
       </c>
       <c r="C5">
-        <v>1.025982406391406</v>
+        <v>-1.403262290267769</v>
       </c>
       <c r="D5">
-        <v>-0.1806501265827047</v>
+        <v>-1.358674078705834</v>
       </c>
       <c r="E5">
         <v>0.03583751613408449</v>
@@ -738,19 +738,19 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.796487941739084E-17</v>
+        <v>2.159079337749544E-16</v>
       </c>
       <c r="H5">
-        <v>-3.53777122332091</v>
+        <v>-4.999999999998838</v>
       </c>
       <c r="I5">
-        <v>-1.455286655986439</v>
+        <v>-4.999999999999896</v>
       </c>
       <c r="J5">
-        <v>0.9454015816210726</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.001857280731201172</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>1.233999967575073</v>
+        <v>-1.298666675885518</v>
       </c>
       <c r="S5">
-        <v>-0.0350000001490116</v>
+        <v>-1.273000001907349</v>
       </c>
       <c r="T5">
         <v>0.0850000008940696</v>
@@ -788,34 +788,34 @@
         <v>24</v>
       </c>
       <c r="B6">
-        <v>9.823830472201188</v>
+        <v>3.459954986787222</v>
       </c>
       <c r="C6">
-        <v>1.233998730632734</v>
+        <v>-0.7859895218841414</v>
       </c>
       <c r="D6">
-        <v>0.005989453525691493</v>
+        <v>-0.7684363995986416</v>
       </c>
       <c r="E6">
-        <v>0.0860346200361774</v>
+        <v>1.496490082159868</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.9940312643099E-15</v>
+        <v>0.2216937091111429</v>
       </c>
       <c r="H6">
-        <v>-1.171659328953728</v>
+        <v>-0.9099282282741589</v>
       </c>
       <c r="I6">
-        <v>-0.502843284308814</v>
+        <v>-0.9298149747043393</v>
       </c>
       <c r="J6">
-        <v>3.158433350884281</v>
+        <v>2.964393875047479E-323</v>
       </c>
       <c r="K6">
-        <v>0.00398176908493042</v>
+        <v>0.005984067916870117</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -836,16 +836,16 @@
         <v>1</v>
       </c>
       <c r="R6">
-        <v>1.253999948501587</v>
+        <v>-0.8116666674613953</v>
       </c>
       <c r="S6">
-        <v>0.01766666645805037</v>
+        <v>-0.7873333295186361</v>
       </c>
       <c r="T6">
-        <v>0.0850000008940696</v>
+        <v>1.49833333492279</v>
       </c>
       <c r="U6">
-        <v>0.5311625833333262</v>
+        <v>14.75000683333331</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -853,64 +853,64 @@
         <v>25</v>
       </c>
       <c r="B7">
-        <v>20.2592826288916</v>
+        <v>8.459179175994375</v>
       </c>
       <c r="C7">
-        <v>1.264000446943958</v>
+        <v>0.249002253858252</v>
       </c>
       <c r="D7">
-        <v>0.02198590688452908</v>
+        <v>0.02043822067848368</v>
       </c>
       <c r="E7">
-        <v>0.1736601845475715</v>
+        <v>1.499995142240145</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.0009989738464355469</v>
       </c>
       <c r="G7">
-        <v>5.421956413889977E-14</v>
+        <v>0.3902541434611371</v>
       </c>
       <c r="H7">
-        <v>-1.016662310291402</v>
+        <v>0.2750479794033598</v>
       </c>
       <c r="I7">
-        <v>-0.3507215155112205</v>
+        <v>-0.1833485429305029</v>
       </c>
       <c r="J7">
-        <v>3.636836948593796</v>
+        <v>2.964393875047479E-323</v>
       </c>
       <c r="K7">
-        <v>0.006009936332702637</v>
+        <v>0.006983041763305664</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M7">
         <v>3</v>
       </c>
       <c r="N7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O7">
         <v>3</v>
       </c>
       <c r="P7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q7">
         <v>3</v>
       </c>
       <c r="R7">
-        <v>1.276000022888184</v>
+        <v>0.2360000014305114</v>
       </c>
       <c r="S7">
         <v>0.0219999998807907</v>
       </c>
       <c r="T7">
-        <v>0.1761666660507519</v>
+        <v>1.5</v>
       </c>
       <c r="U7">
-        <v>1.05626983333331</v>
+        <v>29.47898333333332</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -918,64 +918,64 @@
         <v>26</v>
       </c>
       <c r="B8">
-        <v>29.86008546176483</v>
+        <v>15.08723264789549</v>
       </c>
       <c r="C8">
-        <v>1.276115076582305</v>
+        <v>1.088081153638578</v>
       </c>
       <c r="D8">
-        <v>0.02777991755575221</v>
+        <v>0.7662586422443076</v>
       </c>
       <c r="E8">
-        <v>0.5185013152237465</v>
+        <v>1.503053724599862</v>
       </c>
       <c r="F8">
-        <v>0.049998939037323</v>
+        <v>0.05348861217498779</v>
       </c>
       <c r="G8">
-        <v>0.865804546371256</v>
+        <v>1.209912383528989</v>
       </c>
       <c r="H8">
-        <v>-0.8135658971170251</v>
+        <v>1.191226611032459</v>
       </c>
       <c r="I8">
-        <v>0.3187314179049853</v>
+        <v>0.6164980004161003</v>
       </c>
       <c r="J8">
-        <v>3.987817927138602</v>
+        <v>3.779281361247162E-243</v>
       </c>
       <c r="K8">
-        <v>0.01218539476394653</v>
+        <v>0.009188413619995117</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M8">
         <v>5</v>
       </c>
       <c r="N8">
+        <v>6</v>
+      </c>
+      <c r="O8">
         <v>5</v>
       </c>
-      <c r="O8">
-        <v>5.25</v>
-      </c>
       <c r="P8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q8">
         <v>5</v>
       </c>
       <c r="R8">
-        <v>1.276000022888184</v>
+        <v>1.101999998092651</v>
       </c>
       <c r="S8">
-        <v>0.0266666673123836</v>
+        <v>0.7912500003973644</v>
       </c>
       <c r="T8">
-        <v>0.5209166606267293</v>
+        <v>1.501999974250794</v>
       </c>
       <c r="U8">
-        <v>1.581627999999987</v>
+        <v>44.19375166666666</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -983,34 +983,34 @@
         <v>27</v>
       </c>
       <c r="B9">
-        <v>43.02916599400373</v>
+        <v>52.06408886402222</v>
       </c>
       <c r="C9">
         <v>1.442059835390589</v>
       </c>
       <c r="D9">
-        <v>0.1890465001969917</v>
+        <v>1.353797755966009</v>
       </c>
       <c r="E9">
-        <v>1.203994464283025</v>
+        <v>1.67504279637619</v>
       </c>
       <c r="F9">
-        <v>0.1396265029907227</v>
+        <v>0.2961232662200928</v>
       </c>
       <c r="G9">
-        <v>8.764188371614694</v>
+        <v>13.00421701602148</v>
       </c>
       <c r="H9">
-        <v>0.205281024077559</v>
+        <v>4.999999999996215</v>
       </c>
       <c r="I9">
-        <v>0.6840019479748805</v>
+        <v>4.99999999999976</v>
       </c>
       <c r="J9">
-        <v>3.999991984143735</v>
+        <v>3.999999999999992</v>
       </c>
       <c r="K9">
-        <v>0.06984710693359375</v>
+        <v>0.09872317314147949</v>
       </c>
       <c r="L9">
         <v>7</v>
@@ -1034,13 +1034,13 @@
         <v>1.366999983787537</v>
       </c>
       <c r="S9">
-        <v>0.03833333278695737</v>
+        <v>1.26199996471405</v>
       </c>
       <c r="T9">
-        <v>1.201666673024495</v>
+        <v>1.577999949455261</v>
       </c>
       <c r="U9">
-        <v>2.117089333333317</v>
+        <v>58.84584933333333</v>
       </c>
     </row>
   </sheetData>

--- a/data/extracted_data/const1/const1-trial1-tdoa2-results-scipynm-describe.xlsx
+++ b/data/extracted_data/const1/const1-trial1-tdoa2-results-scipynm-describe.xlsx
@@ -528,64 +528,64 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>28078</v>
+        <v>10000</v>
       </c>
       <c r="C2">
-        <v>28078</v>
+        <v>10000</v>
       </c>
       <c r="D2">
-        <v>28078</v>
+        <v>10000</v>
       </c>
       <c r="E2">
-        <v>28078</v>
+        <v>10000</v>
       </c>
       <c r="F2">
-        <v>28078</v>
+        <v>10000</v>
       </c>
       <c r="G2">
-        <v>28078</v>
+        <v>10000</v>
       </c>
       <c r="H2">
-        <v>28078</v>
+        <v>10000</v>
       </c>
       <c r="I2">
-        <v>28078</v>
+        <v>10000</v>
       </c>
       <c r="J2">
-        <v>28078</v>
+        <v>10000</v>
       </c>
       <c r="K2">
-        <v>28078</v>
+        <v>10000</v>
       </c>
       <c r="L2">
-        <v>28078</v>
+        <v>10000</v>
       </c>
       <c r="M2">
-        <v>28078</v>
+        <v>10000</v>
       </c>
       <c r="N2">
-        <v>28078</v>
+        <v>10000</v>
       </c>
       <c r="O2">
-        <v>28078</v>
+        <v>10000</v>
       </c>
       <c r="P2">
-        <v>28078</v>
+        <v>10000</v>
       </c>
       <c r="Q2">
-        <v>28078</v>
+        <v>10000</v>
       </c>
       <c r="R2">
-        <v>28078</v>
+        <v>10000</v>
       </c>
       <c r="S2">
-        <v>28078</v>
+        <v>10000</v>
       </c>
       <c r="T2">
-        <v>28078</v>
+        <v>10000</v>
       </c>
       <c r="U2">
-        <v>28078</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -593,64 +593,64 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>10.52894440309766</v>
+        <v>12.85595181313085</v>
       </c>
       <c r="C3">
-        <v>0.1397447643437998</v>
+        <v>0.2044496228577047</v>
       </c>
       <c r="D3">
-        <v>-0.001050207284272222</v>
+        <v>0.004892777470366764</v>
       </c>
       <c r="E3">
-        <v>1.433860764556182</v>
+        <v>1.389563468127726</v>
       </c>
       <c r="F3">
-        <v>0.0295293336580669</v>
+        <v>0.02625405948162079</v>
       </c>
       <c r="G3">
-        <v>1.15942913758292</v>
+        <v>1.069708539400317</v>
       </c>
       <c r="H3">
-        <v>0.3122981840871724</v>
+        <v>0.06738028845592675</v>
       </c>
       <c r="I3">
-        <v>-0.1537466280677058</v>
+        <v>-0.5026982942315708</v>
       </c>
       <c r="J3">
-        <v>0.1637278636564015</v>
+        <v>0.7053156697674272</v>
       </c>
       <c r="K3">
-        <v>0.008648753828519736</v>
+        <v>0.00850717327594757</v>
       </c>
       <c r="L3">
-        <v>3.502101289265617</v>
+        <v>3.5014</v>
       </c>
       <c r="M3">
-        <v>3.496367262625543</v>
+        <v>3.4958</v>
       </c>
       <c r="N3">
-        <v>3.50203005912102</v>
+        <v>3.5013</v>
       </c>
       <c r="O3">
-        <v>3.496296032480946</v>
+        <v>3.4957</v>
       </c>
       <c r="P3">
-        <v>3.501958828976423</v>
+        <v>3.5012</v>
       </c>
       <c r="Q3">
-        <v>3.496224802336349</v>
+        <v>3.4956</v>
       </c>
       <c r="R3">
-        <v>0.1302622693760986</v>
+        <v>0.2025954338327633</v>
       </c>
       <c r="S3">
-        <v>0.002505270874734624</v>
+        <v>0.01017970004301367</v>
       </c>
       <c r="T3">
-        <v>1.433620234289719</v>
+        <v>1.389712499850243</v>
       </c>
       <c r="U3">
-        <v>29.46120630979176</v>
+        <v>10.51441713739999</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -658,64 +658,64 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>8.87040635769093</v>
+        <v>10.87889852944488</v>
       </c>
       <c r="C4">
-        <v>0.9216115049624481</v>
+        <v>0.930521962358853</v>
       </c>
       <c r="D4">
-        <v>0.8148361946398645</v>
+        <v>0.7803554647833196</v>
       </c>
       <c r="E4">
-        <v>0.2805731066569871</v>
+        <v>0.364984717022674</v>
       </c>
       <c r="F4">
-        <v>0.0331413202564531</v>
+        <v>0.03031671846123901</v>
       </c>
       <c r="G4">
-        <v>1.781599365068247</v>
+        <v>1.897812911636713</v>
       </c>
       <c r="H4">
-        <v>1.454695100448644</v>
+        <v>1.492076972505776</v>
       </c>
       <c r="I4">
-        <v>1.144925557358659</v>
+        <v>0.8639359389370038</v>
       </c>
       <c r="J4">
-        <v>0.7447226735474752</v>
+        <v>1.320702002209653</v>
       </c>
       <c r="K4">
-        <v>0.005431911904670965</v>
+        <v>0.005225738184808705</v>
       </c>
       <c r="L4">
-        <v>2.29375126562095</v>
+        <v>2.294324395643137</v>
       </c>
       <c r="M4">
-        <v>2.293423249325788</v>
+        <v>2.293710633634304</v>
       </c>
       <c r="N4">
-        <v>2.293766857269127</v>
+        <v>2.294324454489872</v>
       </c>
       <c r="O4">
-        <v>2.29340760556281</v>
+        <v>2.293666846069864</v>
       </c>
       <c r="P4">
-        <v>2.293751391708336</v>
+        <v>2.294280918391044</v>
       </c>
       <c r="Q4">
-        <v>2.293360899302089</v>
+        <v>2.293579449391075</v>
       </c>
       <c r="R4">
-        <v>0.9338287609050804</v>
+        <v>0.9493431585027986</v>
       </c>
       <c r="S4">
-        <v>0.8328799898255055</v>
+        <v>0.8035369150296496</v>
       </c>
       <c r="T4">
-        <v>0.2790593909151618</v>
+        <v>0.3631686339041242</v>
       </c>
       <c r="U4">
-        <v>16.98421271962245</v>
+        <v>6.049737694347413</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -723,13 +723,13 @@
         <v>23</v>
       </c>
       <c r="B5">
-        <v>0.0006234184891853893</v>
+        <v>0.001739823410383367</v>
       </c>
       <c r="C5">
-        <v>-1.403262290267769</v>
+        <v>-1.375924105014723</v>
       </c>
       <c r="D5">
-        <v>-1.358674078705834</v>
+        <v>-1.321780316281113</v>
       </c>
       <c r="E5">
         <v>0.03583751613408449</v>
@@ -738,19 +738,19 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.159079337749544E-16</v>
+        <v>1.778062151269801E-16</v>
       </c>
       <c r="H5">
-        <v>-4.999999999998838</v>
+        <v>-4.999999999999111</v>
       </c>
       <c r="I5">
-        <v>-4.999999999999896</v>
+        <v>-4.99999999999466</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.002884149551391602</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>-1.298666675885518</v>
+        <v>-1.279999971389771</v>
       </c>
       <c r="S5">
-        <v>-1.273000001907349</v>
+        <v>-1.257666667302449</v>
       </c>
       <c r="T5">
         <v>0.0850000008940696</v>
@@ -788,34 +788,34 @@
         <v>24</v>
       </c>
       <c r="B6">
-        <v>3.459954986787222</v>
+        <v>3.886018947227219</v>
       </c>
       <c r="C6">
-        <v>-0.7859895218841414</v>
+        <v>-0.7292399052563853</v>
       </c>
       <c r="D6">
-        <v>-0.7684363995986416</v>
+        <v>-0.7016029401994232</v>
       </c>
       <c r="E6">
-        <v>1.496490082159868</v>
+        <v>1.495882769791118</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.2216937091111429</v>
+        <v>0.0479433076074272</v>
       </c>
       <c r="H6">
-        <v>-0.9099282282741589</v>
+        <v>-1.273141210782218</v>
       </c>
       <c r="I6">
-        <v>-0.9298149747043393</v>
+        <v>-1.178394143494203</v>
       </c>
       <c r="J6">
-        <v>2.964393875047479E-323</v>
+        <v>1.012195933387698E-295</v>
       </c>
       <c r="K6">
-        <v>0.005984067916870117</v>
+        <v>0.005851984024047852</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -836,16 +836,16 @@
         <v>1</v>
       </c>
       <c r="R6">
-        <v>-0.8116666674613953</v>
+        <v>-0.7543333371480306</v>
       </c>
       <c r="S6">
-        <v>-0.7873333295186361</v>
+        <v>-0.7319999933242798</v>
       </c>
       <c r="T6">
-        <v>1.49833333492279</v>
+        <v>1.498999953269958</v>
       </c>
       <c r="U6">
-        <v>14.75000683333331</v>
+        <v>5.285598499999995</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -853,34 +853,34 @@
         <v>25</v>
       </c>
       <c r="B7">
-        <v>8.459179175994375</v>
+        <v>10.28431916299815</v>
       </c>
       <c r="C7">
-        <v>0.249002253858252</v>
+        <v>0.3835590204354851</v>
       </c>
       <c r="D7">
-        <v>0.02043822067848368</v>
+        <v>0.026853063770411</v>
       </c>
       <c r="E7">
-        <v>1.499995142240145</v>
+        <v>1.501003580805939</v>
       </c>
       <c r="F7">
-        <v>0.0009989738464355469</v>
+        <v>0.0009002685546875</v>
       </c>
       <c r="G7">
-        <v>0.3902541434611371</v>
+        <v>0.3285159555733593</v>
       </c>
       <c r="H7">
-        <v>0.2750479794033598</v>
+        <v>-0.135884805184564</v>
       </c>
       <c r="I7">
-        <v>-0.1833485429305029</v>
+        <v>-0.4477820284835821</v>
       </c>
       <c r="J7">
-        <v>2.964393875047479E-323</v>
+        <v>1.948219687440693E-226</v>
       </c>
       <c r="K7">
-        <v>0.006983041763305664</v>
+        <v>0.006987333297729492</v>
       </c>
       <c r="L7">
         <v>4</v>
@@ -901,16 +901,16 @@
         <v>3</v>
       </c>
       <c r="R7">
-        <v>0.2360000014305114</v>
+        <v>0.3796666661898295</v>
       </c>
       <c r="S7">
-        <v>0.0219999998807907</v>
+        <v>0.02733333408832543</v>
       </c>
       <c r="T7">
-        <v>1.5</v>
+        <v>1.501000046730042</v>
       </c>
       <c r="U7">
-        <v>29.47898333333332</v>
+        <v>10.52601716666665</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -918,46 +918,46 @@
         <v>26</v>
       </c>
       <c r="B8">
-        <v>15.08723264789549</v>
+        <v>18.46970909811119</v>
       </c>
       <c r="C8">
-        <v>1.088081153638578</v>
+        <v>1.138001281383097</v>
       </c>
       <c r="D8">
-        <v>0.7662586422443076</v>
+        <v>0.6990098006437497</v>
       </c>
       <c r="E8">
-        <v>1.503053724599862</v>
+        <v>1.507071789208416</v>
       </c>
       <c r="F8">
-        <v>0.05348861217498779</v>
+        <v>0.05101984739303589</v>
       </c>
       <c r="G8">
-        <v>1.209912383528989</v>
+        <v>0.92072520696407</v>
       </c>
       <c r="H8">
-        <v>1.191226611032459</v>
+        <v>0.9151745963725291</v>
       </c>
       <c r="I8">
-        <v>0.6164980004161003</v>
+        <v>0.04051587364321411</v>
       </c>
       <c r="J8">
-        <v>3.779281361247162E-243</v>
+        <v>1.064311570472864E-08</v>
       </c>
       <c r="K8">
-        <v>0.009188413619995117</v>
+        <v>0.009607970714569092</v>
       </c>
       <c r="L8">
         <v>6</v>
       </c>
       <c r="M8">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="N8">
         <v>6</v>
       </c>
       <c r="O8">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="P8">
         <v>6</v>
@@ -966,16 +966,16 @@
         <v>5</v>
       </c>
       <c r="R8">
-        <v>1.101999998092651</v>
+        <v>1.203416635592779</v>
       </c>
       <c r="S8">
-        <v>0.7912500003973644</v>
+        <v>0.737333337465922</v>
       </c>
       <c r="T8">
-        <v>1.501999974250794</v>
+        <v>1.504999995231628</v>
       </c>
       <c r="U8">
-        <v>44.19375166666666</v>
+        <v>15.74723091666666</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -989,28 +989,28 @@
         <v>1.442059835390589</v>
       </c>
       <c r="D9">
-        <v>1.353797755966009</v>
+        <v>1.255510370105678</v>
       </c>
       <c r="E9">
         <v>1.67504279637619</v>
       </c>
       <c r="F9">
-        <v>0.2961232662200928</v>
+        <v>0.1690971851348877</v>
       </c>
       <c r="G9">
-        <v>13.00421701602148</v>
+        <v>13.14125166549277</v>
       </c>
       <c r="H9">
-        <v>4.999999999996215</v>
+        <v>4.999999999943587</v>
       </c>
       <c r="I9">
-        <v>4.99999999999976</v>
+        <v>4.999999999999972</v>
       </c>
       <c r="J9">
-        <v>3.999999999999992</v>
+        <v>3.999999999999993</v>
       </c>
       <c r="K9">
-        <v>0.09872317314147949</v>
+        <v>0.09461092948913574</v>
       </c>
       <c r="L9">
         <v>7</v>
@@ -1034,13 +1034,13 @@
         <v>1.366999983787537</v>
       </c>
       <c r="S9">
-        <v>1.26199996471405</v>
+        <v>1.25</v>
       </c>
       <c r="T9">
         <v>1.577999949455261</v>
       </c>
       <c r="U9">
-        <v>58.84584933333333</v>
+        <v>20.99586033333333</v>
       </c>
     </row>
   </sheetData>
